--- a/generate_data/15_extract_personal_info.xlsx
+++ b/generate_data/15_extract_personal_info.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>33121198006216613</t>
+          <t>331121198006216613</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -901,21 +901,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-7776</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
